--- a/Documentacion/Base de Datos/Estudio de Roles/Estudio de roles.xlsx
+++ b/Documentacion/Base de Datos/Estudio de Roles/Estudio de roles.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\OneDrive\Trabajos\2020\ByteSoft\Documentacion\Base de Datos\Estudio de Roles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c07d1901148e90e5/Trabajos/ByteSoft/Documentacion/Base de Datos/Estudio de Roles/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_DD8E8715CE3BC716A56BADA78A2175F0D6446AA9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{162A38B8-F2A4-482F-A3DD-8E4B76DFDEB5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
+    <workbookView xWindow="1800" yWindow="1950" windowWidth="27000" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -53,15 +54,9 @@
     <t>UsuarioTel</t>
   </si>
   <si>
-    <t>Chat</t>
-  </si>
-  <si>
     <t>Mensaje</t>
   </si>
   <si>
-    <t>PacientePatologia</t>
-  </si>
-  <si>
     <t>Síntoma</t>
   </si>
   <si>
@@ -108,12 +103,18 @@
   </si>
   <si>
     <t>INSERT</t>
+  </si>
+  <si>
+    <t>SalaChat</t>
+  </si>
+  <si>
+    <t>Paciente_selecciona_patologia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,16 +375,16 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -703,7 +704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -751,10 +752,10 @@
       <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="32" t="s">
         <v>3</v>
       </c>
@@ -767,8 +768,8 @@
       <c r="J4" s="34"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="35"/>
       <c r="D5" s="36"/>
       <c r="E5" s="36"/>
@@ -779,8 +780,8 @@
       <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="41"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="17" t="s">
         <v>4</v>
       </c>
@@ -794,7 +795,7 @@
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J6" s="18"/>
     </row>
@@ -815,28 +816,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="38"/>
+      <c r="C8" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="40"/>
       <c r="E8" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
       <c r="G9" s="7"/>
@@ -850,19 +851,19 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J10" s="2"/>
     </row>
@@ -880,11 +881,11 @@
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="5" t="s">
@@ -892,7 +893,7 @@
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="5" t="s">
@@ -914,11 +915,11 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" s="44"/>
       <c r="E14" s="1" t="s">
@@ -926,7 +927,7 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="1" t="s">
@@ -956,7 +957,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="5" t="s">
@@ -964,7 +965,7 @@
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J16" s="10"/>
     </row>
@@ -986,19 +987,19 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J18" s="14"/>
     </row>
@@ -1016,19 +1017,19 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="38" t="s">
-        <v>21</v>
+      <c r="G20" s="40" t="s">
+        <v>19</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="5" t="s">
@@ -1043,26 +1044,26 @@
       <c r="D21" s="8"/>
       <c r="E21" s="7"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="39"/>
+      <c r="G21" s="41"/>
       <c r="H21" s="8"/>
       <c r="I21" s="7"/>
       <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="50" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B22" s="51"/>
       <c r="C22" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="1" t="s">
@@ -1084,19 +1085,19 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="46" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H24" s="47"/>
       <c r="I24" s="5" t="s">
@@ -1122,19 +1123,19 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H26" s="51"/>
       <c r="I26" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J26" s="14"/>
     </row>
@@ -1152,11 +1153,11 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B28" s="47"/>
       <c r="C28" s="46" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D28" s="47"/>
       <c r="E28" s="5" t="s">
@@ -1164,7 +1165,7 @@
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="5" t="s">
@@ -1186,19 +1187,19 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="1" t="s">
@@ -1220,19 +1221,19 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B32" s="47"/>
       <c r="C32" s="46" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D32" s="47"/>
       <c r="E32" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="5" t="s">
@@ -1254,19 +1255,19 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="1" t="s">
@@ -1288,11 +1289,11 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="5" t="s">
@@ -1300,7 +1301,7 @@
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="5" t="s">
@@ -1332,11 +1333,12 @@
     <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="C32:D33"/>
     <mergeCell ref="A36:B37"/>
     <mergeCell ref="G34:H35"/>
     <mergeCell ref="A34:B35"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:H37"/>
     <mergeCell ref="A26:B27"/>
     <mergeCell ref="A28:B29"/>
     <mergeCell ref="C28:D29"/>
@@ -1344,18 +1346,17 @@
     <mergeCell ref="G26:H27"/>
     <mergeCell ref="E28:F29"/>
     <mergeCell ref="G28:H29"/>
+    <mergeCell ref="C26:D27"/>
     <mergeCell ref="E30:F31"/>
     <mergeCell ref="G30:H31"/>
     <mergeCell ref="A30:B31"/>
     <mergeCell ref="C34:D35"/>
     <mergeCell ref="E32:F33"/>
     <mergeCell ref="G32:H33"/>
-    <mergeCell ref="C26:D27"/>
     <mergeCell ref="C30:D31"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:H37"/>
     <mergeCell ref="E34:F35"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="C32:D33"/>
     <mergeCell ref="A14:B15"/>
     <mergeCell ref="A24:B25"/>
     <mergeCell ref="C24:D25"/>
@@ -1365,6 +1366,9 @@
     <mergeCell ref="A22:B23"/>
     <mergeCell ref="C22:D23"/>
     <mergeCell ref="C18:D19"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="A16:B17"/>
     <mergeCell ref="E24:F25"/>
     <mergeCell ref="G12:H13"/>
     <mergeCell ref="G14:H15"/>
@@ -1374,12 +1378,9 @@
     <mergeCell ref="E20:F21"/>
     <mergeCell ref="E22:F23"/>
     <mergeCell ref="G22:H23"/>
-    <mergeCell ref="C16:D17"/>
     <mergeCell ref="G18:H19"/>
-    <mergeCell ref="A18:B19"/>
     <mergeCell ref="E16:F17"/>
     <mergeCell ref="G16:H17"/>
-    <mergeCell ref="A16:B17"/>
     <mergeCell ref="I8:J9"/>
     <mergeCell ref="I14:J15"/>
     <mergeCell ref="I12:J13"/>
